--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Gdf11</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf11</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H2">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I2">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J2">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N2">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O2">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P2">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q2">
-        <v>3.491748379635999</v>
+        <v>8.89119219375625</v>
       </c>
       <c r="R2">
-        <v>13.966993518544</v>
+        <v>35.564768775025</v>
       </c>
       <c r="S2">
-        <v>0.01727785631244305</v>
+        <v>0.03662602152446145</v>
       </c>
       <c r="T2">
-        <v>0.01057579849062152</v>
+        <v>0.02305642323276783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H3">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I3">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J3">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.591557</v>
       </c>
       <c r="O3">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P3">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q3">
-        <v>4.858154268267667</v>
+        <v>11.86339775165417</v>
       </c>
       <c r="R3">
-        <v>29.148925609606</v>
+        <v>71.180386509925</v>
       </c>
       <c r="S3">
-        <v>0.02403910083565669</v>
+        <v>0.04886960622788727</v>
       </c>
       <c r="T3">
-        <v>0.0220715476853351</v>
+        <v>0.04614581153687466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H4">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I4">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J4">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N4">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O4">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P4">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q4">
-        <v>5.471879342695333</v>
+        <v>17.46054354170001</v>
       </c>
       <c r="R4">
-        <v>32.83127605617199</v>
+        <v>104.7632612502</v>
       </c>
       <c r="S4">
-        <v>0.02707593296054481</v>
+        <v>0.07192626474053618</v>
       </c>
       <c r="T4">
-        <v>0.02485982107022831</v>
+        <v>0.0679173849240902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H5">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I5">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J5">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N5">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O5">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P5">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q5">
-        <v>3.539714309396</v>
+        <v>6.802071580806251</v>
       </c>
       <c r="R5">
-        <v>14.158857237584</v>
+        <v>27.208286323225</v>
       </c>
       <c r="S5">
-        <v>0.01751520114723107</v>
+        <v>0.02802018162474187</v>
       </c>
       <c r="T5">
-        <v>0.01072107757502392</v>
+        <v>0.01763896649729204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H6">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I6">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J6">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N6">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O6">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P6">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q6">
-        <v>2.590196860541666</v>
+        <v>17.44633560553333</v>
       </c>
       <c r="R6">
-        <v>15.54118116325</v>
+        <v>104.6780136332</v>
       </c>
       <c r="S6">
-        <v>0.01281680244727294</v>
+        <v>0.07186773713653004</v>
       </c>
       <c r="T6">
-        <v>0.01176777236064106</v>
+        <v>0.06786211941260691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H7">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I7">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J7">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N7">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O7">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P7">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q7">
-        <v>5.751909394644334</v>
+        <v>9.729577727858334</v>
       </c>
       <c r="R7">
-        <v>34.511456367866</v>
+        <v>58.37746636715</v>
       </c>
       <c r="S7">
-        <v>0.02846157661945163</v>
+        <v>0.0400796333628585</v>
       </c>
       <c r="T7">
-        <v>0.02613205251937971</v>
+        <v>0.03784575629696987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.722004</v>
       </c>
       <c r="I8">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J8">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N8">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O8">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P8">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q8">
-        <v>5.753825971578666</v>
+        <v>5.999789174520666</v>
       </c>
       <c r="R8">
-        <v>34.522955829472</v>
+        <v>35.998735047124</v>
       </c>
       <c r="S8">
-        <v>0.02847106021829177</v>
+        <v>0.02471529156714674</v>
       </c>
       <c r="T8">
-        <v>0.02614075990429645</v>
+        <v>0.0233377609268649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.722004</v>
       </c>
       <c r="I9">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J9">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.591557</v>
       </c>
       <c r="O9">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P9">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q9">
         <v>8.005437724469779</v>
@@ -1013,10 +1013,10 @@
         <v>72.048939520228</v>
       </c>
       <c r="S9">
-        <v>0.03961247709836952</v>
+        <v>0.03297727998896118</v>
       </c>
       <c r="T9">
-        <v>0.05455541056972878</v>
+        <v>0.04670888916946998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>5.722004</v>
       </c>
       <c r="I10">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J10">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N10">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O10">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P10">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q10">
-        <v>9.016755519659556</v>
+        <v>11.78239968722133</v>
       </c>
       <c r="R10">
-        <v>81.150799676936</v>
+        <v>106.041597184992</v>
       </c>
       <c r="S10">
-        <v>0.04461667604162992</v>
+        <v>0.04853594604073712</v>
       </c>
       <c r="T10">
-        <v>0.06144733321430914</v>
+        <v>0.06874612233365036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>5.722004</v>
       </c>
       <c r="I11">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J11">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N11">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O11">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P11">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q11">
-        <v>5.832865920165334</v>
+        <v>4.590047605032667</v>
       </c>
       <c r="R11">
-        <v>34.997195520992</v>
+        <v>27.540285630196</v>
       </c>
       <c r="S11">
-        <v>0.02886216539717229</v>
+        <v>0.01890805852766139</v>
       </c>
       <c r="T11">
-        <v>0.02649985389307156</v>
+        <v>0.01785419962822932</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>5.722004</v>
       </c>
       <c r="I12">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J12">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N12">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O12">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P12">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q12">
-        <v>4.26821762261111</v>
+        <v>11.77281215163022</v>
       </c>
       <c r="R12">
-        <v>38.4139586035</v>
+        <v>105.955309364672</v>
       </c>
       <c r="S12">
-        <v>0.02111997852531394</v>
+        <v>0.04849645153007147</v>
       </c>
       <c r="T12">
-        <v>0.02908702469706906</v>
+        <v>0.06869018246468295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.722004</v>
       </c>
       <c r="I13">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J13">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N13">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O13">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P13">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q13">
-        <v>9.478198902900889</v>
+        <v>6.565532928784888</v>
       </c>
       <c r="R13">
-        <v>85.303790126108</v>
+        <v>59.089796359064</v>
       </c>
       <c r="S13">
-        <v>0.04689998847000212</v>
+        <v>0.02704579376184253</v>
       </c>
       <c r="T13">
-        <v>0.06459197490585175</v>
+        <v>0.03830755549715184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H14">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I14">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J14">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N14">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O14">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P14">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q14">
-        <v>0.250119303808</v>
+        <v>0.8567539864078333</v>
       </c>
       <c r="R14">
-        <v>1.500715822848</v>
+        <v>5.140523918446999</v>
       </c>
       <c r="S14">
-        <v>0.001237639406483641</v>
+        <v>0.003529278106188885</v>
       </c>
       <c r="T14">
-        <v>0.00113634105386069</v>
+        <v>0.00333257038311215</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H15">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I15">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J15">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.591557</v>
       </c>
       <c r="O15">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P15">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q15">
-        <v>0.3479970579946667</v>
+        <v>1.143155281606556</v>
       </c>
       <c r="R15">
-        <v>3.131973521952001</v>
+        <v>10.288397534459</v>
       </c>
       <c r="S15">
-        <v>0.001721957744793614</v>
+        <v>0.004709068147163183</v>
       </c>
       <c r="T15">
-        <v>0.002371528332289187</v>
+        <v>0.006669905530442604</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H16">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I16">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J16">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N16">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O16">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P16">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q16">
-        <v>0.3919591284693333</v>
+        <v>1.682495435730667</v>
       </c>
       <c r="R16">
-        <v>3.527632156224</v>
+        <v>15.142458921576</v>
       </c>
       <c r="S16">
-        <v>0.001939490697995118</v>
+        <v>0.006930804407439731</v>
       </c>
       <c r="T16">
-        <v>0.002671120795160996</v>
+        <v>0.009816763997235124</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H17">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I17">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J17">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N17">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O17">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P17">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q17">
-        <v>0.253555177088</v>
+        <v>0.6554466280438334</v>
       </c>
       <c r="R17">
-        <v>1.521331062528</v>
+        <v>3.932679768263</v>
       </c>
       <c r="S17">
-        <v>0.001254640781836407</v>
+        <v>0.002700020625324844</v>
       </c>
       <c r="T17">
-        <v>0.001151950900060022</v>
+        <v>0.00254953236866507</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H18">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I18">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J18">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N18">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O18">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P18">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q18">
-        <v>0.1855397826666667</v>
+        <v>1.681126361068444</v>
       </c>
       <c r="R18">
-        <v>1.669858044</v>
+        <v>15.130137249616</v>
       </c>
       <c r="S18">
-        <v>0.000918087260769564</v>
+        <v>0.006925164696031584</v>
       </c>
       <c r="T18">
-        <v>0.001264415434706122</v>
+        <v>0.009808775932264358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H19">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I19">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J19">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N19">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O19">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P19">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q19">
-        <v>0.4120181115413333</v>
+        <v>0.9375406945157777</v>
       </c>
       <c r="R19">
-        <v>3.708163003872</v>
+        <v>8.437866250641997</v>
       </c>
       <c r="S19">
-        <v>0.002038746483238118</v>
+        <v>0.003862067640547372</v>
       </c>
       <c r="T19">
-        <v>0.002807818636649318</v>
+        <v>0.00547021735715342</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H20">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I20">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J20">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N20">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O20">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P20">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q20">
-        <v>13.067026180824</v>
+        <v>12.52991813341225</v>
       </c>
       <c r="R20">
-        <v>52.26810472329599</v>
+        <v>50.11967253364899</v>
       </c>
       <c r="S20">
-        <v>0.06465821022497165</v>
+        <v>0.0516152436313737</v>
       </c>
       <c r="T20">
-        <v>0.03957737521008788</v>
+        <v>0.03249227879234899</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H21">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I21">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J21">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.591557</v>
       </c>
       <c r="O21">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P21">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q21">
-        <v>18.180470673134</v>
+        <v>16.71850066594217</v>
       </c>
       <c r="R21">
-        <v>109.082824038804</v>
+        <v>100.311003995653</v>
       </c>
       <c r="S21">
-        <v>0.08996053719533473</v>
+        <v>0.0688695229957491</v>
       </c>
       <c r="T21">
-        <v>0.08259744405914053</v>
+        <v>0.06503101363200173</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H22">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I22">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J22">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N22">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O22">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P22">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q22">
-        <v>20.477188747708</v>
+        <v>24.606281854532</v>
       </c>
       <c r="R22">
-        <v>122.863132486248</v>
+        <v>147.637691127192</v>
       </c>
       <c r="S22">
-        <v>0.1013251490081759</v>
+        <v>0.1013621333564169</v>
       </c>
       <c r="T22">
-        <v>0.09303188473424222</v>
+        <v>0.09571261697974578</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H23">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I23">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J23">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N23">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O23">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P23">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q23">
-        <v>13.246527104664</v>
+        <v>9.58582360923025</v>
       </c>
       <c r="R23">
-        <v>52.986108418656</v>
+        <v>38.343294436921</v>
       </c>
       <c r="S23">
-        <v>0.06554641602701218</v>
+        <v>0.03948745839595141</v>
       </c>
       <c r="T23">
-        <v>0.04012104714546662</v>
+        <v>0.02485772451576023</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H24">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I24">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J24">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N24">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O24">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P24">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q24">
-        <v>9.693187054249998</v>
+        <v>24.58625931164533</v>
       </c>
       <c r="R24">
-        <v>58.15912232549999</v>
+        <v>147.517555869872</v>
       </c>
       <c r="S24">
-        <v>0.0479637920388821</v>
+        <v>0.1012796532940405</v>
       </c>
       <c r="T24">
-        <v>0.04403804994176117</v>
+        <v>0.09563473402328768</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H25">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I25">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J25">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N25">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O25">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P25">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q25">
-        <v>21.525133680274</v>
+        <v>13.71141346920233</v>
       </c>
       <c r="R25">
-        <v>129.150802081644</v>
+        <v>82.26848081521399</v>
       </c>
       <c r="S25">
-        <v>0.1065105862160299</v>
+        <v>0.05648224826435046</v>
       </c>
       <c r="T25">
-        <v>0.09779290409952134</v>
+        <v>0.05333415561876041</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H26">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I26">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J26">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N26">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O26">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P26">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q26">
-        <v>3.626359858645333</v>
+        <v>1.619817167616833</v>
       </c>
       <c r="R26">
-        <v>21.758159151872</v>
+        <v>9.718903005701</v>
       </c>
       <c r="S26">
-        <v>0.01794394033095162</v>
+        <v>0.006672610056555567</v>
       </c>
       <c r="T26">
-        <v>0.0164752640868311</v>
+        <v>0.006300705692061794</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H27">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I27">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J27">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.591557</v>
       </c>
       <c r="O27">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P27">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q27">
-        <v>5.045442486147556</v>
+        <v>2.161300186255222</v>
       </c>
       <c r="R27">
-        <v>45.408982375328</v>
+        <v>19.451701676297</v>
       </c>
       <c r="S27">
-        <v>0.02496583969702894</v>
+        <v>0.008903173547209507</v>
       </c>
       <c r="T27">
-        <v>0.03438365218885816</v>
+        <v>0.01261041985913847</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H28">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I28">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J28">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N28">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O28">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P28">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q28">
-        <v>5.682827467015111</v>
+        <v>3.181000654178667</v>
       </c>
       <c r="R28">
-        <v>51.14544720313599</v>
+        <v>28.629005887608</v>
       </c>
       <c r="S28">
-        <v>0.02811974568274229</v>
+        <v>0.01310368687239603</v>
       </c>
       <c r="T28">
-        <v>0.03872729965936687</v>
+        <v>0.01856001034770197</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H29">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I29">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J29">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N29">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O29">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P29">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q29">
-        <v>3.676174937898667</v>
+        <v>1.239216528204834</v>
       </c>
       <c r="R29">
-        <v>22.057049627392</v>
+        <v>7.435299169229</v>
       </c>
       <c r="S29">
-        <v>0.01819043512036762</v>
+        <v>0.005104779004481714</v>
       </c>
       <c r="T29">
-        <v>0.01670158376226223</v>
+        <v>0.004820259217553998</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H30">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I30">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J30">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N30">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O30">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P30">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q30">
-        <v>2.690052346222222</v>
+        <v>3.178412220769777</v>
       </c>
       <c r="R30">
-        <v>24.21047111599999</v>
+        <v>28.605709986928</v>
       </c>
       <c r="S30">
-        <v>0.01331090698918661</v>
+        <v>0.01309302418333446</v>
       </c>
       <c r="T30">
-        <v>0.0183321531255726</v>
+        <v>0.01854490775701554</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H31">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I31">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J31">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N31">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O31">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P31">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q31">
-        <v>5.973653044689778</v>
+        <v>1.772556108765111</v>
       </c>
       <c r="R31">
-        <v>53.762877402208</v>
+        <v>15.953004978886</v>
       </c>
       <c r="S31">
-        <v>0.02955880772179161</v>
+        <v>0.007301796742009151</v>
       </c>
       <c r="T31">
-        <v>0.04070921611919054</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H32">
-        <v>1.257698</v>
-      </c>
-      <c r="I32">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J32">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.016684</v>
-      </c>
-      <c r="N32">
-        <v>6.033367999999999</v>
-      </c>
-      <c r="O32">
-        <v>0.1358466530961894</v>
-      </c>
-      <c r="P32">
-        <v>0.09965128472037957</v>
-      </c>
-      <c r="Q32">
-        <v>1.264692477810667</v>
-      </c>
-      <c r="R32">
-        <v>7.588154866864</v>
-      </c>
-      <c r="S32">
-        <v>0.006257946603047659</v>
-      </c>
-      <c r="T32">
-        <v>0.005745745974681919</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H33">
-        <v>1.257698</v>
-      </c>
-      <c r="I33">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J33">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>4.197185666666667</v>
-      </c>
-      <c r="N33">
-        <v>12.591557</v>
-      </c>
-      <c r="O33">
-        <v>0.1890067455656493</v>
-      </c>
-      <c r="P33">
-        <v>0.2079708765783703</v>
-      </c>
-      <c r="Q33">
-        <v>1.759597339531778</v>
-      </c>
-      <c r="R33">
-        <v>15.836376055786</v>
-      </c>
-      <c r="S33">
-        <v>0.008706832994465777</v>
-      </c>
-      <c r="T33">
-        <v>0.01199129374301849</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H34">
-        <v>1.257698</v>
-      </c>
-      <c r="I34">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J34">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>4.727411333333333</v>
-      </c>
-      <c r="N34">
-        <v>14.182234</v>
-      </c>
-      <c r="O34">
-        <v>0.2128837516433035</v>
-      </c>
-      <c r="P34">
-        <v>0.234243599645347</v>
-      </c>
-      <c r="Q34">
-        <v>1.981885259703555</v>
-      </c>
-      <c r="R34">
-        <v>17.836967337332</v>
-      </c>
-      <c r="S34">
-        <v>0.009806757252215458</v>
-      </c>
-      <c r="T34">
-        <v>0.01350614017203941</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H35">
-        <v>1.257698</v>
-      </c>
-      <c r="I35">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J35">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.058124</v>
-      </c>
-      <c r="N35">
-        <v>6.116248000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.1377127700989335</v>
-      </c>
-      <c r="P35">
-        <v>0.1010201882047394</v>
-      </c>
-      <c r="Q35">
-        <v>1.282065479517333</v>
-      </c>
-      <c r="R35">
-        <v>7.692392877104001</v>
-      </c>
-      <c r="S35">
-        <v>0.006343911625313928</v>
-      </c>
-      <c r="T35">
-        <v>0.005824674928855051</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H36">
-        <v>1.257698</v>
-      </c>
-      <c r="I36">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J36">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.237791666666666</v>
-      </c>
-      <c r="N36">
-        <v>6.713374999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.1007717441545784</v>
-      </c>
-      <c r="P36">
-        <v>0.1108827513189446</v>
-      </c>
-      <c r="Q36">
-        <v>0.938155367861111</v>
-      </c>
-      <c r="R36">
-        <v>8.443398310749998</v>
-      </c>
-      <c r="S36">
-        <v>0.004642176893153219</v>
-      </c>
-      <c r="T36">
-        <v>0.00639333575919457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H37">
-        <v>1.257698</v>
-      </c>
-      <c r="I37">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J37">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>4.969342333333334</v>
-      </c>
-      <c r="N37">
-        <v>14.908027</v>
-      </c>
-      <c r="O37">
-        <v>0.2237783354413461</v>
-      </c>
-      <c r="P37">
-        <v>0.2462312995322192</v>
-      </c>
-      <c r="Q37">
-        <v>2.083310637982889</v>
-      </c>
-      <c r="R37">
-        <v>18.749795741846</v>
-      </c>
-      <c r="S37">
-        <v>0.01030862993083275</v>
-      </c>
-      <c r="T37">
-        <v>0.01419733325162652</v>
+        <v>0.01034223607509984</v>
       </c>
     </row>
   </sheetData>
